--- a/Exercicios/Exercicio 1.3 pclinics/Modelos/Pclinics Fisico.xlsx
+++ b/Exercicios/Exercicio 1.3 pclinics/Modelos/Pclinics Fisico.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint 1 Bd\Senai_sprint1_bd\Exercicios\Exercicio 1.3 pclinics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint 1 Bd\Senai_sprint1_bd\Exercicios\Exercicio 1.3 pclinics\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A571652B-C45B-4323-BAF2-D7CE1A61CEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85AD6E1-7828-4AA2-968A-D8A405C1FDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{42173890-CD6C-49BC-989A-F9AC92AB0CB1}"/>
+    <workbookView xWindow="3300" yWindow="1110" windowWidth="15375" windowHeight="8325" xr2:uid="{42173890-CD6C-49BC-989A-F9AC92AB0CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$8:$N$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Clinica</t>
   </si>
@@ -157,6 +160,24 @@
   </si>
   <si>
     <t>nomeTpet</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Exame ouvido</t>
+  </si>
+  <si>
+    <t>Castração</t>
+  </si>
+  <si>
+    <t>Exame Olho</t>
+  </si>
+  <si>
+    <t>DataAtend</t>
+  </si>
+  <si>
+    <t>CRMV</t>
   </si>
 </sst>
 </file>
@@ -192,8 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65E482-897A-405F-8F10-BD978D16195F}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,21 +544,22 @@
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -552,17 +575,29 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -578,62 +613,104 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>556</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
-        <v>2</v>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>838</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>907</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6">
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -673,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -702,7 +779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -731,7 +808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -760,7 +837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -783,12 +860,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>20</v>
       </c>
@@ -796,7 +873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>1</v>
       </c>
